--- a/KPI_Definitions.xlsx
+++ b/KPI_Definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="129">
   <si>
     <t>Group Description</t>
   </si>
@@ -179,241 +179,253 @@
     <t>{ sum of "TotalBillableHours" / sum of "NetAvailableHours" } where column "Onsite/Offshore" is "Offshore"</t>
   </si>
   <si>
-    <t>Revenue from P&amp;L Table as mentioned above
+    <t>Revenue / sum of "Net Available Hrs"</t>
+  </si>
+  <si>
+    <t>Revenue / sum of "Total billable Hrs"</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>Head Count</t>
+  </si>
+  <si>
+    <t>Distinct Count of "PSNo"</t>
+  </si>
+  <si>
+    <t>Revenue Per Person</t>
+  </si>
+  <si>
+    <t>RPP, Revenue Per Person</t>
+  </si>
+  <si>
+    <t>Revenue / HC</t>
+  </si>
+  <si>
+    <t>sum  of column "Amount in USD" for which column "Group1" is "Direct Expense", "OWN OVERHEADS", "Indirect Expense", "Project Level Depreciation", "Direct Expense - DU Block Seats Allocation","Direct Expense - DU Pool Allocation","Establishment Expenses"</t>
+  </si>
+  <si>
+    <t>PVDG</t>
+  </si>
+  <si>
+    <t>PVDU</t>
+  </si>
+  <si>
+    <t>Exec DG</t>
+  </si>
+  <si>
+    <t>Exec DU</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>ProfitCenterCode</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Company_Code</t>
+  </si>
+  <si>
+    <t>GL Group Description</t>
+  </si>
+  <si>
+    <t>Amount in INR</t>
+  </si>
+  <si>
+    <t>Amount in USD</t>
+  </si>
+  <si>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Group3</t>
+  </si>
+  <si>
+    <t>Group4</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>wbs id</t>
+  </si>
+  <si>
+    <t>Pulse Project ID</t>
+  </si>
+  <si>
+    <t>Contract ID</t>
+  </si>
+  <si>
+    <t>FinalCustomerName</t>
+  </si>
+  <si>
+    <t>sales Region</t>
+  </si>
+  <si>
+    <t>Original Column Name</t>
+  </si>
+  <si>
+    <t>p_and_l</t>
+  </si>
+  <si>
+    <t>Safe SQL Name</t>
+  </si>
+  <si>
+    <t>"Exec DG"</t>
+  </si>
+  <si>
+    <t>"Exec DU"</t>
+  </si>
+  <si>
+    <t>"Amount in INR"</t>
+  </si>
+  <si>
+    <t>"Amount in USD"</t>
+  </si>
+  <si>
+    <t>"wbs id"</t>
+  </si>
+  <si>
+    <t>"Pulse Project ID"</t>
+  </si>
+  <si>
+    <t>"Contract ID"</t>
+  </si>
+  <si>
+    <t>"sales Region"</t>
+  </si>
+  <si>
+    <t>Description/Notes</t>
+  </si>
+  <si>
+    <t>Segment Dimension</t>
+  </si>
+  <si>
+    <t>Contract Identifier</t>
+  </si>
+  <si>
+    <t>Main monetary value</t>
+  </si>
+  <si>
+    <t>Execution Delivery Group</t>
+  </si>
+  <si>
+    <t>Execution Delivery Unit</t>
+  </si>
+  <si>
+    <t>Participating Vertical Delivery Group</t>
+  </si>
+  <si>
+    <t>Participating Vertical Delivery Unit</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Company Code</t>
+  </si>
+  <si>
+    <t>Account/Customer</t>
+  </si>
+  <si>
+    <t>Sales Region</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>BusinessUnit</t>
+  </si>
+  <si>
+    <t>DeliveryGroup</t>
+  </si>
+  <si>
+    <t>Delivery_Unit</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Allocation%</t>
+  </si>
+  <si>
+    <t>AllocationStartDate</t>
+  </si>
+  <si>
+    <t>AllocationEndDate</t>
+  </si>
+  <si>
+    <t>Onsite/Offshore</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ProfitCentre</t>
+  </si>
+  <si>
+    <t>WBSID</t>
+  </si>
+  <si>
+    <t>BillingType</t>
+  </si>
+  <si>
+    <t>ParticipatingVDG</t>
+  </si>
+  <si>
+    <t>ParticipatingVDU</t>
+  </si>
+  <si>
+    <t>NetAvailableHours</t>
+  </si>
+  <si>
+    <t>TotalBillableHours</t>
+  </si>
+  <si>
+    <t>FresherAgeingCategory</t>
+  </si>
+  <si>
+    <t>Date_a</t>
+  </si>
+  <si>
+    <t>sales document</t>
+  </si>
+  <si>
+    <t>utt</t>
+  </si>
+  <si>
+    <t>"sales document"</t>
+  </si>
+  <si>
+    <t>Margin drop</t>
+  </si>
+  <si>
+    <t>Group the column "Group Description" by sum of values in column "Amount in USD" where Column "Type" is "Cost"</t>
+  </si>
+  <si>
+    <t>Group Description,Amount in USD,Type</t>
+  </si>
+  <si>
+    <t>Revenue from P&amp;L Table
+HC from UT Table</t>
+  </si>
+  <si>
+    <t>Revenue from P&amp;L Table 
+Net Available Hrs from UT table</t>
+  </si>
+  <si>
+    <t>Revenue from P&amp;L Table 
 Total billable Hrs from UT table</t>
   </si>
   <si>
-    <t>Revenue from P&amp;L Table as mentioned above
-Net Available Hrs from UT table</t>
-  </si>
-  <si>
-    <t>Revenue / sum of "Net Available Hrs"</t>
-  </si>
-  <si>
-    <t>Revenue / sum of "Total billable Hrs"</t>
-  </si>
-  <si>
-    <t>HC</t>
-  </si>
-  <si>
-    <t>Head Count</t>
-  </si>
-  <si>
-    <t>Distinct Count of "PSNo"</t>
-  </si>
-  <si>
-    <t>Revenue Per Person</t>
-  </si>
-  <si>
-    <t>RPP, Revenue Per Person</t>
-  </si>
-  <si>
-    <t>Revenue from P&amp;L Table as mentioned above
-HC from UT Table as mentioned above</t>
-  </si>
-  <si>
-    <t>Revenue / HC</t>
-  </si>
-  <si>
-    <t>sum  of column "Amount in USD" for which column "Group1" is "Direct Expense", "OWN OVERHEADS", "Indirect Expense", "Project Level Depreciation", "Direct Expense - DU Block Seats Allocation","Direct Expense - DU Pool Allocation","Establishment Expenses"</t>
-  </si>
-  <si>
-    <t>PVDG</t>
-  </si>
-  <si>
-    <t>PVDU</t>
-  </si>
-  <si>
-    <t>Exec DG</t>
-  </si>
-  <si>
-    <t>Exec DU</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>ProfitCenterCode</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>Company_Code</t>
-  </si>
-  <si>
-    <t>GL Group Description</t>
-  </si>
-  <si>
-    <t>Amount in INR</t>
-  </si>
-  <si>
-    <t>Amount in USD</t>
-  </si>
-  <si>
-    <t>Group1</t>
-  </si>
-  <si>
-    <t>Group2</t>
-  </si>
-  <si>
-    <t>Group3</t>
-  </si>
-  <si>
-    <t>Group4</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>wbs id</t>
-  </si>
-  <si>
-    <t>Pulse Project ID</t>
-  </si>
-  <si>
-    <t>Contract ID</t>
-  </si>
-  <si>
-    <t>FinalCustomerName</t>
-  </si>
-  <si>
-    <t>sales Region</t>
-  </si>
-  <si>
-    <t>Original Column Name</t>
-  </si>
-  <si>
-    <t>p_and_l</t>
-  </si>
-  <si>
-    <t>Safe SQL Name</t>
-  </si>
-  <si>
-    <t>"Exec DG"</t>
-  </si>
-  <si>
-    <t>"Exec DU"</t>
-  </si>
-  <si>
-    <t>"Amount in INR"</t>
-  </si>
-  <si>
-    <t>"Amount in USD"</t>
-  </si>
-  <si>
-    <t>"wbs id"</t>
-  </si>
-  <si>
-    <t>"Pulse Project ID"</t>
-  </si>
-  <si>
-    <t>"Contract ID"</t>
-  </si>
-  <si>
-    <t>"sales Region"</t>
-  </si>
-  <si>
-    <t>Description/Notes</t>
-  </si>
-  <si>
-    <t>Segment Dimension</t>
-  </si>
-  <si>
-    <t>Contract Identifier</t>
-  </si>
-  <si>
-    <t>Main monetary value</t>
-  </si>
-  <si>
-    <t>Execution Delivery Group</t>
-  </si>
-  <si>
-    <t>Execution Delivery Unit</t>
-  </si>
-  <si>
-    <t>Participating Vertical Delivery Group</t>
-  </si>
-  <si>
-    <t>Participating Vertical Delivery Unit</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Company Code</t>
-  </si>
-  <si>
-    <t>Account/Customer</t>
-  </si>
-  <si>
-    <t>Sales Region</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>BusinessUnit</t>
-  </si>
-  <si>
-    <t>DeliveryGroup</t>
-  </si>
-  <si>
-    <t>Delivery_Unit</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Allocation%</t>
-  </si>
-  <si>
-    <t>AllocationStartDate</t>
-  </si>
-  <si>
-    <t>AllocationEndDate</t>
-  </si>
-  <si>
-    <t>Onsite/Offshore</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>ProfitCentre</t>
-  </si>
-  <si>
-    <t>WBSID</t>
-  </si>
-  <si>
-    <t>BillingType</t>
-  </si>
-  <si>
-    <t>ParticipatingVDG</t>
-  </si>
-  <si>
-    <t>ParticipatingVDU</t>
-  </si>
-  <si>
-    <t>NetAvailableHours</t>
-  </si>
-  <si>
-    <t>TotalBillableHours</t>
-  </si>
-  <si>
-    <t>FresherAgeingCategory</t>
-  </si>
-  <si>
-    <t>Date_a</t>
-  </si>
-  <si>
-    <t>sales document</t>
-  </si>
-  <si>
-    <t>utt</t>
-  </si>
-  <si>
-    <t>"sales document"</t>
+    <t>C&amp;B,C&amp;B Cost</t>
   </si>
 </sst>
 </file>
@@ -484,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -498,6 +510,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,7 +837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -832,21 +845,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="29.8984375" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="168.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>22</v>
@@ -946,7 +966,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27.6">
@@ -1005,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1068,7 +1088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="69">
+    <row r="15" spans="1:5" ht="55.2">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1079,13 +1099,13 @@
         <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="69">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="55.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1096,18 +1116,18 @@
         <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
@@ -1116,24 +1136,39 @@
         <v>4</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="55.2">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="82.8">
-      <c r="A18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -1162,144 +1197,144 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1313,245 +1348,245 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -1565,254 +1600,254 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/KPI_Definitions.xlsx
+++ b/KPI_Definitions.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="133">
   <si>
     <t>Group Description</t>
   </si>
@@ -426,6 +426,19 @@
   </si>
   <si>
     <t>C&amp;B,C&amp;B Cost</t>
+  </si>
+  <si>
+    <t>Fresher UT Trends</t>
+  </si>
+  <si>
+    <t>Calculate UT% where the column "FresherAgeingCategory" is "Freshers  ET(0-3 Months)" or "Freshers   ET(4-6 Months)" or "Freshers   PGET(0-3 Months)" or "Freshers   ETPremium(0-3 Months)"</t>
+  </si>
+  <si>
+    <t>NetAvailableHours
+TotalBillableHours ,FresherAgeingCategory</t>
+  </si>
+  <si>
+    <t>Margin</t>
   </si>
 </sst>
 </file>
@@ -837,7 +850,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -845,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -856,7 +869,7 @@
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="29.8984375" customWidth="1"/>
     <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" customWidth="1"/>
     <col min="5" max="5" width="168.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1037,7 +1050,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="55.2">
+    <row r="12" spans="1:5" ht="27.6">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1054,7 +1067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="69">
+    <row r="13" spans="1:5" ht="41.4">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1071,7 +1084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="69">
+    <row r="14" spans="1:5" ht="41.4">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1088,7 +1101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="55.2">
+    <row r="15" spans="1:5" ht="27.6">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="55.2">
+    <row r="16" spans="1:5" ht="27.6">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1139,7 +1152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="55.2">
+    <row r="18" spans="1:5" ht="27.6">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1158,17 +1171,36 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27.6">
+      <c r="A20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
